--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.2.0</t>
+    <t>0.2.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T09:07:50+00:00</t>
+    <t>2024-01-12T15:06:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-12T15:06:45+00:00</t>
+    <t>2024-01-15T15:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:32:20+00:00</t>
+    <t>2024-01-15T15:38:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:38:25+00:00</t>
+    <t>2024-01-15T15:51:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T15:51:45+00:00</t>
+    <t>2024-01-24T08:52:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-ror-meta-comment.xlsx
+++ b/ig/main/StructureDefinition-ror-meta-comment.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-24T08:52:08+00:00</t>
+    <t>2024-01-24T16:21:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
